--- a/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/Payments.xlsx
+++ b/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/Payments.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:E1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
